--- a/ExcelCo/basics/02_data_entry.xlsx
+++ b/ExcelCo/basics/02_data_entry.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="700" windowWidth="24960" windowHeight="13840" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="700" windowWidth="24960" windowHeight="13840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Lessons" sheetId="1" r:id="rId1"/>
-    <sheet name="Challenge (Start Here)" sheetId="5" r:id="rId2"/>
+    <sheet name="Challenge" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>g</t>
   </si>
@@ -33,9 +33,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>Step 1:  Using only your keyboard, navigate to the "Here's a challenge for you" sheet</t>
-  </si>
-  <si>
     <t>1. In the grey boxes to the right, enter your favorites, but navigate the cells only using only "Enter"</t>
   </si>
   <si>
@@ -48,15 +45,9 @@
     <t>City</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
     <t>Song</t>
   </si>
   <si>
-    <t>Store</t>
-  </si>
-  <si>
     <t>Movie</t>
   </si>
   <si>
@@ -75,22 +66,70 @@
     <t>f</t>
   </si>
   <si>
-    <t>Lesson 1:  Entering Data Vertically</t>
-  </si>
-  <si>
-    <t>Lesson 2:  Entering Data Horizontally</t>
-  </si>
-  <si>
-    <t>1. In the grey boxes below, enter your least favorites, but navigate the cells only using only "Tab"</t>
-  </si>
-  <si>
-    <t>Lesson 3:  Entering Data to the Left or Upwards</t>
-  </si>
-  <si>
-    <t>1. In the grey boxes below, enter your top 3 favorites, but start with your 3rd favorite city.</t>
-  </si>
-  <si>
     <t>Rank</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Book</t>
+  </si>
+  <si>
+    <t>Lesson 4:  Deleting data</t>
+  </si>
+  <si>
+    <t>Lesson 2:  Entering data horizontally</t>
+  </si>
+  <si>
+    <t>Lesson 1:  Entering data vertically</t>
+  </si>
+  <si>
+    <t>Lesson 3:  Entering data in all directions</t>
+  </si>
+  <si>
+    <t>1. Using your cell skipping, multi-select and now delete skills, delete ALL of the data below without going to each cell.</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>With only your keyboard, delete the letters in the blue cells, then enter 1-9 vertically and horizontally in the grey cells</t>
+  </si>
+  <si>
+    <t>1. In the grey boxes below, enter the first thing that comes to mind corresponding to the blue word, but navigate the cells only using only "Tab"</t>
+  </si>
+  <si>
+    <t>1. In the grey boxes below, enter your top 3 favorites, but start with your 3rd favorite ice cream</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Middle</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
   </si>
 </sst>
 </file>
@@ -168,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -308,11 +347,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -339,38 +417,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,13 +437,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="13">
     <dxf>
       <font>
         <b/>
@@ -408,6 +517,40 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF50A6CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8EC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8EC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -509,8 +652,8 @@
     <mruColors>
       <color rgb="FF50A6CE"/>
       <color rgb="FF00476A"/>
+      <color rgb="FFA7D8EC"/>
       <color rgb="FF969EA7"/>
-      <color rgb="FFA7D8EC"/>
       <color rgb="FFE4F5FD"/>
     </mruColors>
   </colors>
@@ -785,11 +928,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -800,7 +941,7 @@
     <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -833,7 +974,7 @@
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="8"/>
@@ -843,12 +984,10 @@
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="24"/>
+        <v>3</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -862,12 +1001,10 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="24"/>
+        <v>4</v>
+      </c>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -881,12 +1018,10 @@
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="24"/>
+        <v>5</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -900,12 +1035,10 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="24"/>
+        <v>6</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -919,12 +1052,10 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="24"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -940,10 +1071,8 @@
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="24"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -957,12 +1086,10 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="24"/>
+        <v>15</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -981,22 +1108,22 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="33" t="str">
         <f>IF(AND(LEN(L4)&gt;0,LEN(L5)&gt;0,LEN(L6)&gt;0,LEN(L7)&gt;0,LEN(L8)&gt;0,LEN(L9)&gt;0,LEN(L10)&gt;0),"Complete","Incomplete")</f>
-        <v>Complete</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
+        <v>Incomplete</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="35"/>
     </row>
     <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
@@ -1048,7 +1175,7 @@
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="8"/>
@@ -1057,9 +1184,9 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -1072,63 +1199,49 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="10"/>
-      <c r="E18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
+      <c r="E18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="E19" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1147,22 +1260,22 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21" t="str">
+      <c r="B21" s="33" t="str">
         <f>IF(AND(LEN(E19)&gt;0,LEN(F19)&gt;0,LEN(G19)&gt;0,LEN(H19)&gt;0,LEN(I19)&gt;0,LEN(J19)&gt;0,LEN(K19)&gt;0),"Complete","Incomplete")</f>
-        <v>Complete</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
+        <v>Incomplete</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="35"/>
     </row>
     <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
@@ -1200,7 +1313,7 @@
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="10"/>
       <c r="C25" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="8"/>
@@ -1209,9 +1322,9 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
@@ -1224,9 +1337,9 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
@@ -1234,22 +1347,18 @@
       <c r="C27" s="11"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="26"/>
+      <c r="F27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
       <c r="N27" s="9"/>
@@ -1259,70 +1368,46 @@
       <c r="C28" s="11"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="33">
+      <c r="F28" s="25">
         <v>1</v>
       </c>
-      <c r="G28" s="20">
-        <v>1</v>
-      </c>
-      <c r="H28" s="20">
-        <v>1</v>
-      </c>
-      <c r="I28" s="20">
-        <v>1</v>
-      </c>
-      <c r="J28" s="20">
-        <v>1</v>
-      </c>
-      <c r="K28" s="26"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="33">
+      <c r="E29" s="22"/>
+      <c r="F29" s="25">
         <v>2</v>
       </c>
-      <c r="G29" s="20">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20">
-        <v>1</v>
-      </c>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="J29" s="20">
-        <v>1</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="33">
+      <c r="E30" s="23"/>
+      <c r="F30" s="25">
         <v>3</v>
       </c>
-      <c r="G30" s="20">
-        <v>1</v>
-      </c>
-      <c r="H30" s="20">
-        <v>1</v>
-      </c>
-      <c r="I30" s="20">
-        <v>1</v>
-      </c>
-      <c r="J30" s="20">
-        <v>1</v>
-      </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1341,30 +1426,245 @@
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="str">
-        <f>IF(AND(LEN(G28)&gt;0,LEN(G29)&gt;0,LEN(G30)&gt;0,LEN(H28)&gt;0,LEN(H29)&gt;0,LEN(H30)&gt;0,LEN(I28)&gt;0, LEN(I29)&gt;0,LEN(I30)&gt;0,LEN(J28)&gt;0,LEN(J29)&gt;0,LEN(J30)&gt;0),"Complete","Incomplete")</f>
-        <v>Complete</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
+      <c r="B32" s="33" t="str">
+        <f>IF(AND(LEN(G28)&gt;0,LEN(G29)&gt;0,LEN(G30)&gt;0,LEN(I28)&gt;0,LEN(I29)&gt;0,LEN(I30)&gt;0),"Complete","Incomplete")</f>
+        <v>Incomplete</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="35"/>
+    </row>
+    <row r="33" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38" s="19">
+        <v>1</v>
+      </c>
+      <c r="G38" s="19">
+        <v>0</v>
+      </c>
+      <c r="H38" s="19">
+        <v>1</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19">
+        <v>1</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0</v>
+      </c>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="19">
+        <v>1</v>
+      </c>
+      <c r="F39" s="19">
+        <v>0</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1</v>
+      </c>
+      <c r="H39" s="19">
+        <v>0</v>
+      </c>
+      <c r="I39" s="19">
+        <v>1</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0</v>
+      </c>
+      <c r="K39" s="19">
+        <v>1</v>
+      </c>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="10"/>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="19">
+        <v>1</v>
+      </c>
+      <c r="G40" s="19">
+        <v>0</v>
+      </c>
+      <c r="H40" s="19">
+        <v>1</v>
+      </c>
+      <c r="I40" s="19">
+        <v>0</v>
+      </c>
+      <c r="J40" s="19">
+        <v>1</v>
+      </c>
+      <c r="K40" s="19">
+        <v>0</v>
+      </c>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="10"/>
+      <c r="E41" s="19">
+        <v>1</v>
+      </c>
+      <c r="F41" s="19">
+        <v>0</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19">
+        <v>1</v>
+      </c>
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19">
+        <v>1</v>
+      </c>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="15"/>
+    </row>
+    <row r="43" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="33" t="str">
+        <f>IF(SUM(E38:K41)=0,"Complete","Incomplete")</f>
+        <v>Incomplete</v>
+      </c>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="B32:N32"/>
+  <mergeCells count="31">
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="B21:N21"/>
     <mergeCell ref="L9:M9"/>
@@ -1373,34 +1673,60 @@
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="B12:N12"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <conditionalFormatting sqref="B12:N13">
-    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="Incomplete">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Incomplete">
       <formula>NOT(ISERROR(SEARCH("Incomplete",B12)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="14" operator="beginsWith" text="Complete">
+    <cfRule type="beginsWith" dxfId="11" priority="18" operator="beginsWith" text="Complete">
       <formula>LEFT(B12,LEN("Complete"))="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:N21">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Incomplete">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Incomplete">
       <formula>NOT(ISERROR(SEARCH("Incomplete",B21)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="4" operator="beginsWith" text="Complete">
+    <cfRule type="beginsWith" dxfId="9" priority="8" operator="beginsWith" text="Complete">
       <formula>LEFT(B21,LEN("Complete"))="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:N32">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Incomplete">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Incomplete">
       <formula>NOT(ISERROR(SEARCH("Incomplete",B32)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Complete">
+    <cfRule type="beginsWith" dxfId="7" priority="6" operator="beginsWith" text="Complete">
       <formula>LEFT(B32,LEN("Complete"))="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:N43">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Incomplete">
+      <formula>NOT(ISERROR(SEARCH("Incomplete",B43)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="5" priority="4" operator="beginsWith" text="Complete">
+      <formula>LEFT(B43,LEN("Complete"))="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:K41">
+    <cfRule type="containsBlanks" dxfId="4" priority="20">
+      <formula>LEN(TRIM(E38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:M10 E19:K19 G28:J30">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="19">
+      <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1409,30 +1735,481 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I2"/>
+  <dimension ref="B2:Q14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="17" width="6.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="18"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E4" s="27"/>
+      <c r="F4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E5" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26" t="str">
+        <f>IFERROR(IF(F$4*$E5&gt;0,F$4*$E5,""),"")</f>
+        <v/>
+      </c>
+      <c r="G5" s="26" t="str">
+        <f t="shared" ref="G5:N13" si="0">IFERROR(IF(G$4*$E5&gt;0,G$4*$E5,""),"")</f>
+        <v/>
+      </c>
+      <c r="H5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N5" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="26" t="str">
+        <f t="shared" ref="F6:F13" si="1">IFERROR(IF(F$4*$E6&gt;0,F$4*$E6,""),"")</f>
+        <v/>
+      </c>
+      <c r="G6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N6" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E7" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N7" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E12" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N13" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E14" s="42" t="str">
+        <f>IF(SUM(F5:N13)=2025,"Complete","Incomplete")</f>
+        <v>Incomplete</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="E14:N14"/>
   </mergeCells>
+  <conditionalFormatting sqref="F5:N13">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:N4 E5:E13">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(E4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:N14">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Incomplete">
+      <formula>NOT(ISERROR(SEARCH("Incomplete",E14)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Complete">
+      <formula>LEFT(E14,LEN("Complete"))="Complete"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ExcelCo/basics/02_data_entry.xlsx
+++ b/ExcelCo/basics/02_data_entry.xlsx
@@ -459,16 +459,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,9 +484,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -986,8 +986,8 @@
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1003,8 +1003,8 @@
       <c r="K5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -1020,8 +1020,8 @@
       <c r="K6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -1037,8 +1037,8 @@
       <c r="K7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -1054,8 +1054,8 @@
       <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -1071,8 +1071,8 @@
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -1088,8 +1088,8 @@
       <c r="K10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1108,22 +1108,22 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="33" t="str">
+      <c r="B12" s="32" t="str">
         <f>IF(AND(LEN(L4)&gt;0,LEN(L5)&gt;0,LEN(L6)&gt;0,LEN(L7)&gt;0,LEN(L8)&gt;0,LEN(L9)&gt;0,LEN(L10)&gt;0),"Complete","Incomplete")</f>
         <v>Incomplete</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="35"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="34"/>
     </row>
     <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
@@ -1185,8 +1185,8 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -1200,8 +1200,8 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
@@ -1227,8 +1227,8 @@
       <c r="K18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
@@ -1240,8 +1240,8 @@
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1260,22 +1260,22 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="str">
+      <c r="B21" s="32" t="str">
         <f>IF(AND(LEN(E19)&gt;0,LEN(F19)&gt;0,LEN(G19)&gt;0,LEN(H19)&gt;0,LEN(I19)&gt;0,LEN(J19)&gt;0,LEN(K19)&gt;0),"Complete","Incomplete")</f>
         <v>Incomplete</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="35"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="34"/>
     </row>
     <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
@@ -1323,8 +1323,8 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="20"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
@@ -1338,8 +1338,8 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
@@ -1350,14 +1350,14 @@
       <c r="F27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="36" t="s">
+      <c r="G27" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="36" t="s">
+      <c r="H27" s="38"/>
+      <c r="I27" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="37"/>
+      <c r="J27" s="38"/>
       <c r="K27" s="20"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
@@ -1371,10 +1371,10 @@
       <c r="F28" s="25">
         <v>1</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="20"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
@@ -1386,13 +1386,13 @@
       <c r="F29" s="25">
         <v>2</v>
       </c>
-      <c r="G29" s="38"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -1401,13 +1401,13 @@
       <c r="F30" s="25">
         <v>3</v>
       </c>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="24"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1426,22 +1426,22 @@
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="str">
+      <c r="B32" s="32" t="str">
         <f>IF(AND(LEN(G28)&gt;0,LEN(G29)&gt;0,LEN(G30)&gt;0,LEN(I28)&gt;0,LEN(I29)&gt;0,LEN(I30)&gt;0),"Complete","Incomplete")</f>
         <v>Incomplete</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="35"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="34"/>
     </row>
     <row r="33" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
@@ -1489,8 +1489,8 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="20"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
@@ -1504,8 +1504,8 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="20"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
@@ -1589,8 +1589,8 @@
       <c r="K40" s="19">
         <v>0</v>
       </c>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
@@ -1616,8 +1616,8 @@
       <c r="K41" s="19">
         <v>1</v>
       </c>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1636,43 +1636,25 @@
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="33" t="str">
+      <c r="B43" s="32" t="str">
         <f>IF(SUM(E38:K41)=0,"Complete","Incomplete")</f>
         <v>Incomplete</v>
       </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="35"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B12:N12"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L29:M29"/>
@@ -1686,6 +1668,24 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <conditionalFormatting sqref="B12:N13">
     <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Incomplete">

--- a/ExcelCo/basics/02_data_entry.xlsx
+++ b/ExcelCo/basics/02_data_entry.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26505"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="700" windowWidth="24960" windowHeight="13840" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="700" windowWidth="24960" windowHeight="13840" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lessons" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -373,24 +373,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -449,48 +436,49 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -986,8 +974,8 @@
       <c r="K4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
       <c r="N4" s="9"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1003,8 +991,8 @@
       <c r="K5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
       <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -1020,8 +1008,8 @@
       <c r="K6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -1037,8 +1025,8 @@
       <c r="K7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -1054,8 +1042,8 @@
       <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -1071,8 +1059,8 @@
       <c r="K9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -1088,8 +1076,8 @@
       <c r="K10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1108,22 +1096,22 @@
       <c r="N11" s="15"/>
     </row>
     <row r="12" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="32" t="str">
+      <c r="B12" s="31" t="str">
         <f>IF(AND(LEN(L4)&gt;0,LEN(L5)&gt;0,LEN(L6)&gt;0,LEN(L7)&gt;0,LEN(L8)&gt;0,LEN(L9)&gt;0,LEN(L10)&gt;0),"Complete","Incomplete")</f>
         <v>Incomplete</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
@@ -1185,8 +1173,8 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="20"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -1200,8 +1188,8 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="20"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
@@ -1227,21 +1215,21 @@
       <c r="K18" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="10"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1260,22 +1248,22 @@
       <c r="N20" s="15"/>
     </row>
     <row r="21" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="str">
+      <c r="B21" s="31" t="str">
         <f>IF(AND(LEN(E19)&gt;0,LEN(F19)&gt;0,LEN(G19)&gt;0,LEN(H19)&gt;0,LEN(I19)&gt;0,LEN(J19)&gt;0,LEN(K19)&gt;0),"Complete","Incomplete")</f>
         <v>Incomplete</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="34"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="33"/>
     </row>
     <row r="22" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
@@ -1323,8 +1311,8 @@
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="20"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
@@ -1338,8 +1326,8 @@
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="20"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
@@ -1350,14 +1338,14 @@
       <c r="F27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="37" t="s">
+      <c r="H27" s="35"/>
+      <c r="I27" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="38"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="20"/>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
@@ -1371,10 +1359,10 @@
       <c r="F28" s="25">
         <v>1</v>
       </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
       <c r="K28" s="20"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
@@ -1386,13 +1374,13 @@
       <c r="F29" s="25">
         <v>2</v>
       </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
@@ -1401,13 +1389,13 @@
       <c r="F30" s="25">
         <v>3</v>
       </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
       <c r="K30" s="24"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1426,22 +1414,22 @@
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="32" t="str">
+      <c r="B32" s="31" t="str">
         <f>IF(AND(LEN(G28)&gt;0,LEN(G29)&gt;0,LEN(G30)&gt;0,LEN(I28)&gt;0,LEN(I29)&gt;0,LEN(I30)&gt;0),"Complete","Incomplete")</f>
         <v>Incomplete</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="34"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="33"/>
     </row>
     <row r="33" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
@@ -1489,8 +1477,8 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="20"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
@@ -1504,8 +1492,8 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="20"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
       <c r="N37" s="9"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
@@ -1589,8 +1577,8 @@
       <c r="K40" s="19">
         <v>0</v>
       </c>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
       <c r="N40" s="9"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
@@ -1616,8 +1604,8 @@
       <c r="K41" s="19">
         <v>1</v>
       </c>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
       <c r="N41" s="9"/>
     </row>
     <row r="42" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1636,25 +1624,43 @@
       <c r="N42" s="15"/>
     </row>
     <row r="43" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="32" t="str">
+      <c r="B43" s="31" t="str">
         <f>IF(SUM(E38:K41)=0,"Complete","Incomplete")</f>
         <v>Incomplete</v>
       </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="34"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B21:N21"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B12:N12"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="L29:M29"/>
@@ -1668,24 +1674,6 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="B21:N21"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <conditionalFormatting sqref="B12:N13">
     <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="Incomplete">
@@ -1735,9 +1723,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q14"/>
+  <dimension ref="B2:Q15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
@@ -1747,24 +1735,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="E4" s="27"/>
@@ -2125,51 +2113,48 @@
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="30" t="str">
+      <c r="F13" s="26" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="N13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="E14" s="42" t="str">
-        <f>IF(SUM(F5:N13)=2025,"Complete","Incomplete")</f>
-        <v>Incomplete</v>
-      </c>
+      <c r="G13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="L13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="M13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="N13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="43"/>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
@@ -2180,12 +2165,27 @@
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
     </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E15" s="40" t="str">
+        <f>IF(SUM(F5:N13)=2025,"Complete","Incomplete")</f>
+        <v>Incomplete</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="E14:N14"/>
+    <mergeCell ref="E15:N15"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:N13">
+  <conditionalFormatting sqref="F5:N14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2197,17 +2197,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:N4 E5:E13">
+  <conditionalFormatting sqref="F4:N4 E5:E14">
     <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(E4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:N14">
+  <conditionalFormatting sqref="E15:N15">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Incomplete">
-      <formula>NOT(ISERROR(SEARCH("Incomplete",E14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Incomplete",E15)))</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="2" operator="beginsWith" text="Complete">
-      <formula>LEFT(E14,LEN("Complete"))="Complete"</formula>
+      <formula>LEFT(E15,LEN("Complete"))="Complete"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
